--- a/data/georgia_census/adjara/xulo/healthcare_staff.xlsx
+++ b/data/georgia_census/adjara/xulo/healthcare_staff.xlsx
@@ -1377,13 +1377,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE504A8B-0D83-4A88-96EC-670C3A424B44}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF17CE1-7D62-432E-8C8D-F698B5FE33C5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFB9E442-BA6D-4E49-82B3-46014335EBE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D729E910-EB29-4726-89F3-8ED02976B3CA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97FBB6F6-FBF4-4D09-8DE9-B78D05C8336B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C89041E-9BD6-44BC-8614-28C27D31B3E9}"/>
 </file>